--- a/insulation_comparison.xlsx
+++ b/insulation_comparison.xlsx
@@ -478,13 +478,13 @@
         <v>0.045</v>
       </c>
       <c r="D2" t="n">
-        <v>318.69</v>
+        <v>278.41</v>
       </c>
       <c r="E2" t="n">
-        <v>131.31</v>
+        <v>171.59</v>
       </c>
       <c r="F2" t="n">
-        <v>30.89647058823529</v>
+        <v>40.37411764705882</v>
       </c>
     </row>
     <row r="3">
@@ -500,13 +500,13 @@
         <v>0.042</v>
       </c>
       <c r="D3" t="n">
-        <v>241.44</v>
+        <v>246.83</v>
       </c>
       <c r="E3" t="n">
-        <v>208.56</v>
+        <v>203.17</v>
       </c>
       <c r="F3" t="n">
-        <v>49.07294117647059</v>
+        <v>47.80470588235294</v>
       </c>
     </row>
     <row r="4">
@@ -522,13 +522,13 @@
         <v>0.038</v>
       </c>
       <c r="D4" t="n">
-        <v>196.13</v>
+        <v>238.83</v>
       </c>
       <c r="E4" t="n">
-        <v>253.87</v>
+        <v>211.17</v>
       </c>
       <c r="F4" t="n">
-        <v>59.73411764705882</v>
+        <v>49.68705882352941</v>
       </c>
     </row>
     <row r="5">
@@ -544,13 +544,13 @@
         <v>0.04</v>
       </c>
       <c r="D5" t="n">
-        <v>209.18</v>
+        <v>187.41</v>
       </c>
       <c r="E5" t="n">
-        <v>240.82</v>
+        <v>262.59</v>
       </c>
       <c r="F5" t="n">
-        <v>56.6635294117647</v>
+        <v>61.78588235294118</v>
       </c>
     </row>
   </sheetData>
